--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/75_Tunceli_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/75_Tunceli_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F44294-7BBD-4642-9DE0-DE313282CAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC499865-5BE6-4884-8CCF-CC02148FF6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="701" xr2:uid="{F24064FD-E033-45B8-9049-F7147F2B2B7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="701" xr2:uid="{506D2C93-A59E-48F4-A3E5-D7FF746740F2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -983,14 +983,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1ABE29C3-8A4A-47D1-A6DC-F2C1B6D5456A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CCCB34ED-06C2-4CBD-88DB-A51BD039BE3E}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{6437C3FD-9FB3-440C-A156-C393EB6278B6}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{504BD989-D413-4B06-9837-9F11303628CB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{4B3F84DD-01BF-4160-9A10-A5E769255951}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{293CCC6C-6DF0-48C8-9B57-41E8B2175311}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{3C0DFF2A-7CF8-409E-B9A2-77037DC657D5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{25D7288B-69F0-4183-811B-4D477CDF0B10}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{714F81CC-2143-47B3-B5D3-EF8BCC2027C8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{22DDBC52-61D2-493F-937F-3F76319C0F4F}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{81DB55E0-3791-4749-A089-A71A6B741FB8}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{184EBE4A-32D6-4E95-A20D-B704EA4AE895}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E0914176-80F9-47AC-B7AF-07A270420AB1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{EDCBEAB8-AB61-4CD3-8142-74A81F0622A8}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{B64EF6E4-7F42-4599-A445-DBD0CDCB9C8B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B0B4A013-5B31-48E9-B054-018866430756}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D61228F-45C3-4ED1-8B77-ED055D3DF0D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450F5D2D-BAB1-400D-99C3-215C5F4F2BB1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2539,18 +2539,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DBD659B-10B6-4C27-9FE5-6C671BA60C15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4297A44E-2A5F-4CD3-987A-74229F51C860}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B8246D2D-EB2A-4082-98AF-16E665C2BD9D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3893B322-6A2F-45C8-A394-8126844CD74F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB28D6A0-8A6C-4900-B36D-4F857240B885}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E72B2293-C800-4B86-ACC1-F917549EE588}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19679998-948E-428C-9820-E9FBD155E2FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF78D7CF-C05B-45FE-90DD-BA68AD6DD382}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C1C310D-CE33-47B7-BDEE-54813980CE52}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A5D04BB-BDD2-41F5-B7E4-70F50DFBB741}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11E1E9CA-5086-4779-8406-6214CBB58FFE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A546C43-7FF1-4AC3-B7E6-0869BC9D3D2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{894A7B6C-CDDB-4F5F-B8B7-03BDBE43F2DC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7F379EE-EDF4-4EE0-AFA5-01D0405B8B6B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{12D1E4E8-549C-4CE7-8529-62D1EB6BFF5A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00A061F4-6A5B-44F0-B81A-24EAA4A9F657}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F67A130-AC20-4D56-9A14-79193C06640A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{29A58802-914A-4055-950E-13BF287BDE83}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{434C4A6F-B58F-4A7E-9238-4CCD1499E6A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAD067A1-6F7D-4033-8D21-9ABEF0C41AE3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF32A3E3-758C-43A1-A2BE-A27B39623767}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47851160-0BA5-4AC9-8CF3-55B8AAFCD647}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8376269-9B3D-4A90-AA68-74F260A0E5D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{987149EC-46C3-45DE-B4A4-574B196F31A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2563,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DEC144-48D6-4BAB-B092-9E2088566622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9567E22-13A1-4211-9EEE-8E25BBA797DC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3728,18 +3728,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5DAFB3A-A8DC-428E-936E-7FE6B6B7ADD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5D702E9-BE80-43A3-AD35-FF8CA4FC39B2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8485EBC4-C067-48C4-9448-85FAE5C5AAAD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C897B5E-F684-42D3-B747-2A9F07F1B83E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4E279C4-8ACE-4137-87CE-9ED323A7B471}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9196D928-0ACA-43F0-A1BD-9B44090F4700}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F97A65DD-8FA4-4CF6-870A-5AA3B02A91C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CCE08B7-5D4B-435E-954C-42F69F865497}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B997282-5DB8-4DFF-816A-401BAE3C46B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5F9FC7B-9777-421E-B4A1-776B773CE003}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F74B323C-350C-4350-89C1-DAF303A8B98B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26432EEA-09B5-44F2-85C6-533D90FF96B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{760F7CCF-2953-4017-82C3-D18DBBBE153A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1C8905C-EC1B-40AE-BEE6-4742E1A00348}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFAF9F73-514C-4373-A77B-3AC6BF460D07}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{73854F41-6F82-40B9-BB6D-021F3A699AEE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AADD999-13F0-4465-8FF9-30CF24D7E8CA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3D68F2D9-85C3-43E0-A214-8B4E5E8A8AA1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73A1F544-2252-4E46-A70C-5771EDD4D9EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CEBE63E-7FD5-48B5-BF64-7BB87B17527F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E60FD4F-6F05-47A1-B1C1-C134C42B8D25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C10CD3D-AF73-49DB-B9F5-5A140BDF0E5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DBEA54E-38D2-452C-A0CE-C8A4A0DC23B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D24682FD-192F-4AE0-873E-6A2178A9CB41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3752,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49760B2-DE30-4EEE-875B-F521A8C79345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A80FF8-C3A7-4B31-BAC1-4061CB886D50}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4911,18 +4911,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5135F87E-CEE2-4BFE-B6B9-F6B0533579EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CBA629A-1E8B-4C2C-A53E-F1D642BA2DB1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6368C48C-EA3B-4EE8-8284-CE0499882FEC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62EF00CC-5489-4D63-BC2A-3692A5667221}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8834EEC8-E056-45BE-9755-08004970F0C1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F6A6C85E-B6C3-43D7-8A26-4757C6314F2B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D720766-950B-4FAE-9FBD-E8A9FDC82AAB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81571C7E-2A3A-4951-AFC3-758697E5C7EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A98A299C-76E1-40AB-9B0F-FF0E622E7BC2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83F41759-BB0C-4D75-BF35-0D04E8A267C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EADE4F7C-7DDD-45F7-97B5-7B3EF115D3C2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C837514A-8935-4C6B-836B-5488EE4BBC50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F79B18A4-D151-43EB-A80C-3189EDC4838B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D259C715-AF0D-473D-A672-CFF0AC5A884B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{679A89A4-CD47-4A1F-9C35-2B088F2A0B05}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BD673650-D492-4ACF-98E7-4B901E80777B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1097850-3F05-4379-B448-95476E227B24}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68CC0501-43DF-4F15-BA47-6DA7B8E822BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C4FFA68-142E-40F8-A715-75F836E00837}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5551AEC-E268-40A5-913A-4146242DE7FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC5E4972-D98A-4710-B511-4650A9A47D6B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACB53F35-502E-499C-AFFD-5860A42869E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D069A494-70A9-4060-B864-F67D945D8A28}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E4EF20B-681C-416B-862C-7188CE0F449B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4935,7 +4935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02581244-1554-4197-9C0C-4582A6613E9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACAF42-CBD7-47C2-A35F-89F1547F2E08}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6088,18 +6088,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78AA30D7-A60E-4DFD-95B4-04A016B28D01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5B65B87-BECD-49F3-A442-FA662FC60B3A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5CFCF018-B226-465F-9A8E-187BA27CDABB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E477CBF0-2B19-4380-B05E-B2D4D8B0FDCA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DF7DA01-6462-4C6C-B8DE-A2BB3D9F2DA2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD3646D6-3197-4293-BDAF-4A638CE06E25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C905ACCF-3183-40F0-93C1-B59358F3C6F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59D207D7-513D-441F-B888-BC61CDE7E99D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64919885-278E-49E6-85DA-BD20EAFB8BF5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4328B900-6063-4B41-96EB-4404BA253112}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47F7FBB1-CE0C-47D9-9A1E-CD75CCA4C951}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6719BB5B-F5AF-4991-ADC6-554C24E60E3A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1211E1F7-36EA-49A4-B076-45909D04B06E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96F24DAA-B99D-4051-83B9-E5B40E3FED26}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5504C133-0EF1-403D-BE2E-8E422928AC3E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E37B6FD5-4B80-4FB2-82E9-292A98B1B07F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17AE98BC-B2DC-4CDA-B4FE-35F2FFFD1416}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8D5C4034-664F-4EB7-A94F-1C579B6BF506}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9540F7D-89ED-454F-892A-34767E185C24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{186E8963-2AF6-4A87-86DB-D62866A94D28}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E511307B-7D46-4794-9D28-52BE37969667}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{07989056-4277-4D2E-99EF-585DE9E17D69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69120256-560B-49B5-84D4-072638C6B5FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B8ACDF8-9FD4-4492-8A00-4D93D13A5EA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6112,7 +6112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046EC647-AAED-4737-8B44-5EDB05EA7860}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019C1078-48BC-4D06-B8A1-AA0AA778AC3D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7287,18 +7287,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41344E6C-09B2-413C-9C5E-54E06FD3F085}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE247EA4-C9DC-4B6B-98AA-47D92E1FD134}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DB18E286-7916-4A46-AFA9-8CA855F4822E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE9352DD-EAD7-4515-BD1B-822504CFFED1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0315BBF8-A4E3-45F3-987A-3A1B0A2233BE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C3D47E06-9C73-4462-95D8-993D2BC3722F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87BBEA50-7FA4-48BE-B68E-F1D9E7F8F55D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C868552-7097-4C73-9D81-E1C49C750ECA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BAB9BC78-7E3E-4042-8B23-1052AD28CEEC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{88B9C5F3-8287-4304-AA6A-935FBCBDCD48}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{955942E2-F622-455C-BD4E-D020D1167731}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A5C73C0-DD17-4E00-9D2E-6172427CBF8A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3D4A262-C8E1-4302-88AB-F0B3E6593EE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F03CACB8-2A0A-4348-B5DA-11E0E5EA2E6B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF321887-76EA-465B-9FDE-C0989F87D49C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F38C0B68-8003-4E02-A206-6932C7275CE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B17785C1-2933-4951-BD14-A58291819B45}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E5C462F9-EAFC-443C-80D4-8E7B7D96E35E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3DCB883-9A91-4C5F-BE7C-72A0F405F350}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37749572-3F50-4EC6-987D-69B83DD4CE4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2891B60B-1439-46D3-BB36-400134AE43F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8E78592-6C34-4E7D-89A8-E05738F1293E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5392912B-6CF0-4C3B-B2D5-80D597DCDB2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5135CD6-0786-4357-96E1-19AB5136FB0D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7311,7 +7311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411AE8A-D8C1-4E10-9CA4-D78C2E5920D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5EB47-E372-4327-8934-CC82D20F2520}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8490,18 +8490,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01562A0E-CC2F-4CB0-AD26-EA9D96847BD6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25E35E70-63D6-4B8B-A6B4-B0D691F4C9F1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D812F26-D0EC-4004-B7F3-94437E726DDD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{98225DC7-A4FB-4B2E-AE10-4FB1F34D53E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{427D7053-7C71-4E4B-A3C4-833268FAFF3B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{69309868-6347-40B1-896B-E7CBADBBA8A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B17E30FC-E785-4C85-A5A4-CD4BD4A81A9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCF4F6E4-54A1-4D0A-8A5A-2A16722AAB24}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32D251D8-9099-4454-A0AC-E2A15F595220}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF0291C3-58CC-4DF3-88AD-9FA41F4C4EDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{797F30FF-3CE9-4204-871D-546F250F431F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89E6D1AF-3366-4E54-9BDF-592212D90956}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0F0D7B5-558B-465A-8153-A9B6960F49A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BE59F29-981F-477C-96F4-7BF6CBF024D0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD0AD378-8C0E-415B-9FBE-3E1999F236E2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72F76100-AA9C-4B01-B1D5-C62A9CE1CDF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B118FC09-6109-43D7-9DAF-0508FCBDC1BD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{49772F1A-DDC8-400A-B99C-02A47D2AC8B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C51AA724-6FB6-4AE1-889A-29DD98ED7DF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BA495AD-EA1E-4FAE-8606-732CE07BB347}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7E15861-614F-40B6-825F-15C2CF8C3777}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2D13900B-C551-42A2-9A59-EBACF3253A55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FCF8346-FE53-4729-924B-C8FB795F25ED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74F64A88-CD57-4A2F-B966-8DFFEE92D1AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8514,7 +8514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9743A2-0B06-409F-96A2-1D1C8704B383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEB8225-B43A-475B-84DD-321E8972BA62}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9693,18 +9693,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECB48A4D-8492-43F4-8718-6AB1CD337966}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F2A4F49-AC08-4BEB-9171-E1EA3C4D180B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{93BF4515-00CA-41FC-B228-4C762ADE69E8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A07065ED-7DB0-4EB4-A3CE-7F6A8AAABE3B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{365B8C62-4D38-4611-B93F-3428F57F1FB7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6BFF71C2-323C-4226-847D-0A70F86B77A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B78E3224-A498-440D-8F32-EF18A7D635F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCC3598A-5AB7-4C00-963A-E841110DE6BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C217C1F-86D6-4EEC-99E0-5B939FD5CF91}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67477DE7-C610-4FBA-A15F-B720046B4D84}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0D5257F-C0E9-40F4-B315-A0B56530FC94}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2C3811E-6FC4-443C-A869-C28DFC59B1AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D0EEBBA-2463-4F05-8A6C-CAA4D6081C8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8008ADC-C28C-4D52-9B92-88BBA1835555}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FD8807F5-B9AB-4632-B097-65227E2FCC2C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0708899E-24B2-4DEF-9B28-5781266394B1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D2F2F00-80DA-438D-85CD-943A3E4E82FE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E5AE40A2-3EA5-4D8D-AD66-5BC84000C054}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B7682A8-EF97-4AF5-9AF9-2A5EDF9429C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08F40E62-683A-47C9-A229-966635524F25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E52AF93-18C8-4DA5-8914-FD739F3AD112}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10A3448C-09D2-4F4F-A848-99B95940D36C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C72E15F-3C58-41AA-88D3-E2A76739F870}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8ED0BEE1-E57E-4B54-8954-2876361A4C28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9717,7 +9717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6449D7A-839F-48A5-8FC2-8DCC0AE684A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F355AAC9-5FBE-4C33-8084-8CE1C1BF76FD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10894,18 +10894,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9E1869B-7DBC-4170-9223-4CD60F0C6001}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5056CCBE-7DD7-4125-92F9-0E10F30CC7AD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2B9AC0D6-95A7-4C6F-8677-90D61984F790}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6AA11518-A047-4DDD-9885-8B95AE900F89}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{88EE60A8-47D5-4626-BB5A-A83134CEE00D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C76BC934-415E-42A1-98F4-50C4BB99C9E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED2EA4AF-EC05-47E4-B66C-94ECD50DC7A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35818DE2-8282-40FA-9896-4DA007FB5FD3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48D96625-1D59-4D1D-9D44-BC5520487EA4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12087D9F-F567-43DF-BA12-4A715CC56DD3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D86474A2-D430-4CF0-A64F-E0258211C40C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BCEE260-6249-4F6D-95D4-8EEB402B8902}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27AB27EB-D934-4BEF-B86E-C239CC34EF28}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E00AF5E-9428-44C1-972B-E2F4980161BD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A6A1761E-6BED-41D9-B0D6-D66EE09FE868}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8F3FE176-2676-438A-8D38-5C92BBD2BE9B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E993CF7B-3EA0-499D-8381-F8E344753D70}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{49B33248-D5A9-4147-993F-812CA933E8F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2409FE42-253D-4F6A-9E52-BC1121746F8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A757166-BA4B-4BD5-8AE1-FADF535476E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00F95EE2-00D3-4D6D-935E-81A578F43590}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{346D8C1E-6C1C-4A67-A4A2-AB7633F1EB01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B712CDA-4B9A-429A-A87C-E347BF6120E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4D3806E-ED53-47FB-9892-1754BBB37C9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10918,7 +10918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6AD8D7-E8F5-42F2-843E-948FE5836C0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF64B94D-3939-445A-837A-2A52C0793A34}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12093,18 +12093,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3329C3C-EF5C-4AA3-88B1-EB94E2459A82}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9C3352B-24F1-42D1-9869-158A3980D678}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC004D02-CAFC-4BD0-BE6E-4683C684F668}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8858367C-EE0A-4750-83D0-A60006E2B51E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8ABA083-2B9F-435A-91AD-4A4B713A81A4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{330F6DEB-9B89-488C-907C-72409B79F657}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0641E957-9F09-40D3-838A-E6BA032BA001}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43336443-3538-4279-ADF4-9B5D155C41ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96728490-6C3D-4CC8-98C5-7A2338123545}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06B0CD27-B7D3-4DCD-A9F5-F07080ABC56E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AD93CF1-799F-40A8-8673-C8FC55ACC202}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DAC5549D-A5F1-4FC9-B604-5A9408EB8CC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{710BE549-D51D-4915-83C0-7A6A60655E67}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44892E68-1AEB-4FB0-957E-37C137E0279A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40C09695-129C-4CEB-BE5A-141C1AC7B18A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF67A65D-0955-4D2D-BBB6-CB9D7D430C9A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D01E29E-7115-48DC-83CF-AC645E18CEE4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{05399923-C10B-4574-B170-28CF6D23F008}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AA0CAC6-ECB9-4615-AB7A-E43B8847EA13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F888477E-43E5-4018-A051-C2254FFBAC58}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EFA069C3-C5F2-41F9-AEFF-48322A96B3C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E221F3E-83E3-4925-BBBB-5711C26FA871}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C852586-AD95-41BA-B02B-7975BCFF4D11}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BB49C10-8C64-4FFB-8E3E-413E1A4D8C47}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12117,7 +12117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5C7A9D-3115-4AFB-BB08-FBB801ACB56F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F1C4E7-74B0-4308-B8FC-781A3B38EF95}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13292,18 +13292,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3F4E42F-152C-4F7B-BFA2-026274CBFBA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEE3B73B-79C6-44D8-9BF1-730263853218}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AB84AF45-14C6-4F15-A2DF-FAA9BBBCA412}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58734A9A-9D00-4C64-90F9-E253CA8E6D00}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EA8B9CD-0A04-453B-8780-41476D1232DC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ADCB9A74-C979-4AD8-B071-C861A4582A0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38C35706-4021-49C1-83A1-27221EBFD955}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A604078C-3526-40C2-AF2F-CAB63B970E4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C188EBE-AA64-4FEC-B0D7-30FB227A39FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5DC6E0B4-9A58-463B-89D0-57E000B0DE13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{320E6022-4576-4AB3-9FA3-F9EAFC554AA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{999F7B91-CF79-4EB9-9DC7-81EACFA5FDCE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5DB78A7-DF26-497A-A926-025F69E50252}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0E1D194-3F57-4053-A9DC-1012C1DBB79C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A922AC3A-7E51-4AC6-A581-00806D9F24EE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{94C8E519-225C-4E96-AC4F-AE36FB1870C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6980E890-18CD-4EE9-81BE-81921823315F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8872B6A6-F87A-4AF0-A13C-18949080974E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1CE2C12-FD5A-429E-AD70-B4F2C1B32969}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51AAB3FD-29D1-4112-A10E-A1CB1E968181}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBBB28E0-BE3B-4B7E-9F69-1DF92F726B0A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42887D40-360B-45D2-92FE-B67BC6F1733A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A084F3E8-10EF-48B5-8A69-E4AEBA812939}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56A209B0-6A54-484B-B50C-670EF6257849}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13316,7 +13316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C220E40-6AB1-4186-9492-ED568BE2CC3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6C519A-3D71-4787-AD75-F9EBDCC72350}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14495,18 +14495,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{613937D1-DEBA-44CF-9529-9FA892682A6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52EAD6A3-DF9E-4F84-AD78-9F184661CC7F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A14DD756-7CB1-45BA-A026-7F4EDB3AE9E4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B07E8C9-FC13-49AB-8966-B9B9C01B38D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A9E1DD2-8FE5-40B1-B4C4-940F11988420}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{36B1EE5F-3A5F-4E85-913A-84EB76A29775}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E628A6EB-0FDC-40E1-852D-6241C685E002}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66D59FBB-2807-4E83-A38A-6202B6C42F04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CEF0D7A-9D92-400A-B331-DA695FB988AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCF19F5A-CCA0-4E53-8ADB-8139EC922432}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E18EB67F-B378-4BD1-91D5-16AB1940A24E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76CD8282-2629-40BE-B916-4489CEA47DC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D99EF7F5-2989-4A7D-97F3-80EE703DB457}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A34A102-EE8F-483B-9BBE-C6BC8B6DB7FA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{016195BD-79B9-404C-ACF7-3E211327D0E0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F6B200CC-F6CB-4295-9DEB-A2CFC5425254}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2AB8797-D440-4B0F-AAFB-7A2E7EFA7809}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{13CBC630-6BFB-4DD6-AF29-FB9DB0002B77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAD08329-69F9-4D4D-9392-A1CDAB80CDE3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCE8814C-6AB4-4597-A8EB-FE8EB57F0755}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B80F1D7-7DA9-4511-B41D-DF115C0E243A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE8CE91D-9BCA-4203-B8B4-53C56C51DDD5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34402572-4D1D-49E7-9D02-BC0AC15FD94F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E070DEE-A5AF-4AA8-8192-4D163B37261E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14519,7 +14519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0F466D-E148-48DA-A67B-F1EDC311C275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E14451B-4C36-4FC5-9018-DE40C578AE69}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15698,18 +15698,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59C996C3-E928-498F-9B35-6E0E7970226C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D969A41-F4E9-4A84-8ECC-6DE80279D8AB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B69CC92F-20CA-4F0D-ADD5-5C7D0406C481}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1D60B27C-51A9-405F-ACAF-F2A172A5C6B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A703362-7CA0-4BAE-A5A4-BA72CDCCEDEE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F8B1C9B0-FE6B-4372-9BE7-5B4ED73CEB64}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F744C3C8-B772-4A6B-B56D-98C1B5754B12}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4334D246-EF05-42D4-A9A8-5A35AC4EAFAE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44F19D0E-3E73-4A91-AB3D-37E412A2CDCC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E529E1EA-AA7A-4C1B-BEAA-FDFBD11D7106}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91B2BA26-327B-40CC-953D-42B648138A23}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEEB672D-D958-48CF-86A5-81A4D375A157}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFAE02DE-2F59-4E1C-AAC3-C519BA9E0C46}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD3F4D32-3356-4CA9-B850-5D2F67B29797}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1A9854D-1B83-44E0-B298-9450363A612B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{49D1BDF5-F944-4039-A9C3-6B6387D94306}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{453ECD33-7045-45A9-85F6-DAA4B0A6FEAC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3EB47FD3-1808-4725-8EBA-209C336A5E2C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91E81485-6D82-44FC-8DC7-CB91F0C10515}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D07308A-08D4-44F9-8F15-219EC7268413}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44F74A0B-DF4E-44E3-B2B1-4D8DD6A04B3C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0E7EE9A-77F5-4B3B-933C-9E792202BDD2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DA5887E-0211-40F5-849D-63605B957919}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FB3CA55-6CE9-4B72-AE24-318F4C3DFE45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
